--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1324"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74277,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74331,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74385,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74439,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74493,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74547,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74601,7 +74613,387 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>145</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>142.75</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>142.8200073242188</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>142.8200073242188</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>142.8200073242188</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>143</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>141.8999938964844</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>142.1999969482422</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>142.1999969482422</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>42999</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>142.3500061035156</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>142.75</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>142</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>18667</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>142.5200042724609</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>143.6999969482422</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>142.3000030517578</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>143.3000030517578</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>143.3000030517578</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>47698</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>143.4100036621094</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>143.4299926757812</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>142.3999938964844</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>142.6300048828125</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>142.6300048828125</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>13951</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>142.6300048828125</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>142.9900054931641</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>142.3200073242188</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>142.8000030517578</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>142.8000030517578</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>21256</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>142.7100067138672</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>144.25</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>143.4499969482422</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>143.4499969482422</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>47573</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74669,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74723,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74777,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74831,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74885,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74939,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74993,7 +75005,387 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>145</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>145.4900054931641</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>143.2799987792969</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>145.1300048828125</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>145.1300048828125</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>195150</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>145.0599975585938</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>147.1000061035156</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>144.1999969482422</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>145.8000030517578</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>145.8000030517578</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>159738</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>145.9600067138672</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>149.0899963378906</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>145.6799926757812</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>147.7899932861328</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>147.7899932861328</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>289676</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>147.6100006103516</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>151</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>147.3999938964844</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>150.2799987792969</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>150.2799987792969</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>382410</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>150.2299957275391</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>150.4199981689453</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>149</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>149.1399993896484</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>149.1399993896484</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>111545</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>149.0500030517578</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>149.9900054931641</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>148.1000061035156</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>148.7599945068359</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>148.7599945068359</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>553644</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>148.7400054931641</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>149.2400054931641</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>148</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>148.7400054931641</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>148.7400054931641</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>58474</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1338"/>
+  <dimension ref="A1:R1345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75061,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75115,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75169,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75223,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75277,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75331,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75385,7 +75397,387 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>149.1000061035156</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>147.1000061035156</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>147.6699981689453</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>147.6699981689453</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>147.5599975585938</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>149.6000061035156</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>147</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>149.4100036621094</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>149.4100036621094</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>114989</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>149.1799926757812</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>149.1100006103516</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>151.9799957275391</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>151.9799957275391</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>423478</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>152</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>155.2899932861328</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>151.8300018310547</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>154.6799926757812</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>154.6799926757812</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>495467</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>154.6999969482422</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>154.9400024414062</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>153.2700042724609</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>163043</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>153.5800018310547</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>154.1999969482422</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>152.5399932861328</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>152.6799926757812</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>152.6799926757812</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>143495</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>152.8899993896484</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>151.8099975585938</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>117783</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -75453,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75507,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75561,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75615,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75669,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75723,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75777,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1345"/>
+  <dimension ref="A1:R1352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75793,6 +75793,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>153.4100036621094</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>153.8999938964844</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>152.0099945068359</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>152.9700012207031</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>152.9700012207031</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>421749</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>152.7799987792969</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>153.8200073242188</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>152.0899963378906</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>152.0899963378906</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>55179</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>152</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>152.2899932861328</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>151.1600036621094</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>151.9900054931641</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>151.9900054931641</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>40529</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>152.1900024414062</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>152.1900024414062</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>151.3200073242188</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>151.7899932861328</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>151.7899932861328</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>26433</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>151.6499938964844</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>151</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>151.0599975585938</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>151.0599975585938</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>57031</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>151.1100006103516</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>151.2400054931641</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>150.1000061035156</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>150.9600067138672</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>150.9600067138672</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>39722</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1352"/>
+  <dimension ref="A1:R1359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75837,7 +75837,7 @@
         <v>25</v>
       </c>
       <c r="O1346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1346" t="n">
         <v>0</v>
@@ -75845,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75899,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75953,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76007,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76061,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76115,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76169,7 +76181,387 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>151.8899993896484</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>153.0500030517578</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>147.7400054931641</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>148.8600006103516</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>148.8600006103516</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>217285</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>148.7299957275391</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>149.4400024414062</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>147.4100036621094</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>98470</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>148.8300018310547</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>150.9400024414062</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>148.8000030517578</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>150.5399932861328</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>150.5399932861328</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>64097</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>150.6699981689453</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>151.6799926757812</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>150.3899993896484</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>150.6000061035156</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>150.6000061035156</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>79731</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>150.6100006103516</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>151.2100067138672</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>150.1100006103516</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>151.0099945068359</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>151.0099945068359</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>31860</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>150.0200042724609</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>150.1199951171875</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>150.1199951171875</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>63948</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>150.1199951171875</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>151.1300048828125</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>150.4499969482422</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>150.4499969482422</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>37184</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1359"/>
+  <dimension ref="A1:R1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76237,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76283,7 +76285,7 @@
         <v>25</v>
       </c>
       <c r="O1354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1354" t="n">
         <v>0</v>
@@ -76291,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76345,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76399,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76453,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>2</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76507,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76561,7 +76573,1143 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>149.6000061035156</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>154.1900024414062</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>149.8500061035156</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>153.2100067138672</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>153.2100067138672</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>140788</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>153</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>154.9499969482422</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>152.7700042724609</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>179204</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>154.1699981689453</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>152.6000061035156</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>55283</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>152.8600006103516</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>153.1000061035156</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>151.7899932861328</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>152.3399963378906</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>152.3399963378906</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>45205</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>152.3999938964844</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>152.0800018310547</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>152.6300048828125</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>152.6300048828125</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>28397</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>152.6199951171875</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>152</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>153.7400054931641</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>153.8500061035156</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>151.6699981689453</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>151.6699981689453</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>151.6699981689453</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>108144</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>152</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>150.1199951171875</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>150.3500061035156</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>150.3500061035156</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>68269</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>150.1000061035156</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>151.4799957275391</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>151.4799957275391</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>30361</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>151.6799926757812</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>149.7100067138672</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>150.5200042724609</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>150.5200042724609</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>55398</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>150.6600036621094</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>151.4100036621094</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>150.3600006103516</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>151.0200042724609</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>151.0200042724609</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>16681</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>151.2200012207031</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>150.1300048828125</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>150.1300048828125</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>23093</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>150.1000061035156</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>150.5899963378906</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>150.4499969482422</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>150.4499969482422</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>13735</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>151.0099945068359</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>152.4499969482422</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>149</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>151.3999938964844</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>153.9499969482422</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>151.3999938964844</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>153.7200012207031</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>153.7200012207031</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>74885</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>154</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>159</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>154</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>156.7299957275391</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>156.7299957275391</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>449348</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>156.6100006103516</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>163.3000030517578</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>156.6100006103516</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>161.2899932861328</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>161.2899932861328</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>1883714</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>161.4600067138672</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>163.7100067138672</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>714995</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>160.6100006103516</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>160.6100006103516</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>397187</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>160.7299957275391</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>162.4700012207031</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>160.2200012207031</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>161.1900024414062</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>161.1900024414062</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>260889</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1380"/>
+  <dimension ref="A1:R1394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76629,7 +76629,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76683,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76737,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76791,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76845,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76899,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76953,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77007,7 +77021,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -77061,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77115,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77169,7 +77189,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77223,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77277,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77331,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>2</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77377,7 +77405,7 @@
         <v>26</v>
       </c>
       <c r="O1374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1374" t="n">
         <v>0</v>
@@ -77385,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77439,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77493,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77547,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77601,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77655,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77709,7 +77749,765 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>164.0899963378906</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>168.2599945068359</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>163.4499969482422</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>165.1000061035156</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>165.1000061035156</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>165.0599975585938</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>165.3899993896484</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>163.7200012207031</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>164.7100067138672</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>164.7100067138672</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>227986</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>164.8500061035156</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>164.9299926757812</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>162.8999938964844</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>163.6999969482422</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>163.6999969482422</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>171950</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>163.3000030517578</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>164.7700042724609</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>163.1199951171875</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>118383</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>163.7299957275391</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>164.3800048828125</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>164.3800048828125</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>121786</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>164.6600036621094</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>164.6600036621094</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>162</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>163.1000061035156</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>163.1000061035156</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>204146</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>163.25</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>163.25</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>160.5599975585938</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>161.5800018310547</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>161.5800018310547</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>202859</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>161.5800018310547</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>162.3500061035156</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>159</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>162.3500061035156</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>162.3500061035156</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>162.3999938964844</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>162.3999938964844</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>165.5500030517578</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>165.5500030517578</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>663628</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>165.5500030517578</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>165.3999938964844</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>165.8200073242188</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>165.8200073242188</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>169200</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>165.6000061035156</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>166.0899963378906</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>164.1100006103516</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>164.3500061035156</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>164.3500061035156</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>106878</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>164.3600006103516</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>164.8000030517578</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>164.0200042724609</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>164.1100006103516</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>164.1100006103516</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>56387</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>164.2899932861328</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>163.4900054931641</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>163.4900054931641</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>163.4900054931641</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>85358</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>163.5299987792969</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>163.7899932861328</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>162.0099945068359</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>162.9600067138672</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>162.9600067138672</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>101682</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1394"/>
+  <dimension ref="A1:R1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77805,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77859,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77913,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77967,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78021,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78075,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78129,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78175,7 +78189,7 @@
         <v>26</v>
       </c>
       <c r="O1388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1388" t="n">
         <v>0</v>
@@ -78183,7 +78197,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78237,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78291,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78345,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78399,7 +78421,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78453,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78507,7 +78533,387 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>163.9499969482422</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>161.3699951171875</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>162.8600006103516</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>162.8600006103516</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>234819</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>162.9700012207031</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>159.6100006103516</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>160.8500061035156</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>160.8500061035156</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>183435</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>160.7599945068359</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>160</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>161.9100036621094</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>161.9100036621094</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>101990</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>161.6699981689453</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>161.7100067138672</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>160.0099945068359</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>160.3500061035156</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>160.3500061035156</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>72184</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>160.1799926757812</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>160.3899993896484</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>155.7799987792969</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>156.4400024414062</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>156.4400024414062</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>194240</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>156.0200042724609</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>159</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>156.0200042724609</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>158.4400024414062</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>158.4400024414062</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>124944</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>158.4499969482422</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>159.3000030517578</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>157.1900024414062</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>158.0700073242188</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>158.0700073242188</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>85768</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1401"/>
+  <dimension ref="A1:R1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78589,7 +78589,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78643,7 +78645,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78697,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78751,7 +78757,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78805,7 +78813,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78859,7 +78869,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78913,7 +78925,387 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>160.8200073242188</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>159.0800018310547</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>159.0800018310547</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>159.1199951171875</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>159.9700012207031</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>78700</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>159.8500061035156</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>163.3000030517578</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>159.3899993896484</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>162</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>162</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>212258</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>162</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>159.7100067138672</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>160.1600036621094</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>160.1600036621094</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>67780</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>160.2299957275391</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>161.3800048828125</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>160.0800018310547</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>161.0700073242188</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>161.0700073242188</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>38696</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>161.2100067138672</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>161.2100067138672</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>77532</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>159.9700012207031</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>159.0099945068359</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>45126</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -78981,7 +78981,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79035,7 +79037,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79089,7 +79093,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79143,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79197,7 +79205,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79251,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79305,7 +79317,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1408"/>
+  <dimension ref="A1:R1415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78805,7 +78805,7 @@
         <v>26</v>
       </c>
       <c r="O1399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1399" t="n">
         <v>0</v>
@@ -79320,6 +79320,384 @@
       <c r="R1408" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>159.8999938964844</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>163.3999938964844</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>158.2100067138672</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>162.4700012207031</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>162.4700012207031</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>162.5800018310547</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>161.3099975585938</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>161.7899932861328</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>161.7899932861328</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>128066</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>161.7799987792969</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>161.8999938964844</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>159.9199981689453</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>160</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>160</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>55713</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>160.2400054931641</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>160.5200042724609</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>159.3000030517578</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>160.2100067138672</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>160.2100067138672</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>59352</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>160.3000030517578</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>161.4100036621094</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>160.1199951171875</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>160.5500030517578</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>160.5500030517578</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>46831</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>160.8999938964844</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>160.0800018310547</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>160.0800018310547</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>52487</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>160.4499969482422</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>159.7200012207031</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>160.0200042724609</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>160.0200042724609</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>44533</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1415"/>
+  <dimension ref="A1:R1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79373,7 +79373,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79419,7 +79421,7 @@
         <v>27</v>
       </c>
       <c r="O1410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1410" t="n">
         <v>0</v>
@@ -79427,7 +79429,9 @@
       <c r="Q1410" t="n">
         <v>1</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79481,7 +79485,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79535,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79589,7 +79597,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79643,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79697,7 +79709,387 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>160.0200042724609</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>161.7899932861328</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>159.0599975585938</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>159.7400054931641</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>159.7400054931641</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>159.4700012207031</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>159.8000030517578</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>159.8000030517578</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>41280</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>159.8000030517578</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>159.9400024414062</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>158.9700012207031</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>158.9700012207031</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>158.9700012207031</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>44871</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>159.4600067138672</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>157.8999938964844</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>58573</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>159.3000030517578</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>159.1100006103516</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>159.1100006103516</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>23183</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>159.4400024414062</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>157.5700073242188</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>157.9499969482422</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>157.9499969482422</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>65759</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>157.7200012207031</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>157.9900054931641</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>157.1999969482422</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>157.6799926757812</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>157.6799926757812</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>42008</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1422"/>
+  <dimension ref="A1:R1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79765,7 +79765,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79819,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79873,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79927,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79981,7 +79989,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -80035,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80089,7 +80101,387 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>158.4900054931641</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>159.6000061035156</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>158.3399963378906</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>161.1699981689453</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>161.1699981689453</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>179539</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>161.8999938964844</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>160.2700042724609</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>161.1399993896484</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>161.1399993896484</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>91779</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>161.1100006103516</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>161.6000061035156</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>160.25</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>160.25</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>160.25</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>59123</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>159.5700073242188</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>41151</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>159.7599945068359</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>160.0200042724609</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>158.7599945068359</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>158.9299926757812</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>158.9299926757812</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>48274</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>158.9900054931641</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>158.8399963378906</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>159.1300048828125</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>159.1300048828125</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>45712</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1429"/>
+  <dimension ref="A1:R1436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80093,7 +80093,7 @@
         <v>27</v>
       </c>
       <c r="O1422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1422" t="n">
         <v>0</v>
@@ -80157,7 +80157,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80203,7 +80205,7 @@
         <v>27</v>
       </c>
       <c r="O1424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1424" t="n">
         <v>0</v>
@@ -80211,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80265,7 +80269,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80319,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80373,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80427,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80481,7 +80493,387 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>160.9900054931641</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>158.4499969482422</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>158.7200012207031</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>158.7200012207031</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>160.1600036621094</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>160.1600036621094</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>120716</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>160.0099945068359</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>162.8999938964844</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>159.8000030517578</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>160.4499969482422</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>160.4499969482422</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>142296</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>160.4499969482422</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>160.9600067138672</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>159.5800018310547</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>159.8899993896484</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>159.8899993896484</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>47099</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>159.8500061035156</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>160.2599945068359</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>159.8099975585938</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>54811</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>159.9700012207031</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>160.3699951171875</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>59738</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45477.63541666666</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>159.8999938964844</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>159.1999969482422</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>159.1999969482422</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>55187</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1436"/>
+  <dimension ref="A1:R1443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80549,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80603,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80657,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80711,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80765,7 +80773,9 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80819,7 +80829,9 @@
       <c r="Q1435" t="n">
         <v>2</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80873,7 +80885,387 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>159.9100036621094</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>160.8300018310547</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>159</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>159</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>158.8399963378906</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>159.2899932861328</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>157.8300018310547</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>80173</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>158.2100067138672</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>157.6499938964844</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>158.6300048828125</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>158.6300048828125</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>72832</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>159.5500030517578</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>62600</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>158.5800018310547</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>158.5299987792969</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>159</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>159</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>45349</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>159.1999969482422</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>160.3899993896484</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>158.8500061035156</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>158.8500061035156</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>158.8500061035156</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>101899</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45478.63541666666</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>158.8500061035156</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>159.3999938964844</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>158.5299987792969</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>159.1600036621094</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>159.1600036621094</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>27892</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1443"/>
+  <dimension ref="A1:R1450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80941,7 +80941,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80995,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81049,7 +81053,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81103,7 +81109,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81157,7 +81165,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81211,7 +81221,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81265,7 +81277,387 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45481.38541666666</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>159.8999938964844</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>159.9900054931641</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>158.5500030517578</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>159.3699951171875</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>159.3699951171875</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45481.42708333334</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>159.1999969482422</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>159.3699951171875</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>158</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>158.1300048828125</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>158.1300048828125</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>57864</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45481.46875</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>158.25</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>158.4900054931641</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>157</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>157.0099945068359</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>157.0099945068359</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>36901</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45481.51041666666</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>157</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>156.5399932861328</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>156.9199981689453</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>156.9199981689453</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>77076</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45481.55208333334</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>156.7200012207031</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>158</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>156.6799926757812</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>157.5500030517578</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>157.5500030517578</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>22860</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45481.59375</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>158</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>157.25</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>42663</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45481.63541666666</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>157.25</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>157.3500061035156</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>156.7599945068359</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>157.3099975585938</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>157.3099975585938</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>27127</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1450"/>
+  <dimension ref="A1:R1457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81333,7 +81333,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81387,7 +81389,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81441,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81495,7 +81501,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81549,7 +81557,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81603,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81657,7 +81669,387 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45482.38541666666</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>157.6900024414062</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>159.3300018310547</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>159</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>159</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45482.42708333334</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>159</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>159.1699981689453</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>158.9900054931641</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>158.9900054931641</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>45784</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45482.46875</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>159.1699981689453</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>159.2700042724609</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>157.8200073242188</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>79859</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45482.51041666666</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>158.3899993896484</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>157.9900054931641</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>157.9900054931641</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>15362</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45482.55208333334</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>157.8500061035156</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>18769</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45482.59375</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>157.0200042724609</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>157.1499938964844</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>157.1499938964844</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>58117</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45482.63541666666</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>157.1000061035156</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>157.1900024414062</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>57520</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1457"/>
+  <dimension ref="A1:R1464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81725,7 +81725,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81779,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81833,7 +81837,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81887,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81941,7 +81949,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81995,7 +82005,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82049,7 +82061,387 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45483.38541666666</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>157</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>157.2899932861328</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>151.3800048828125</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>152</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>152</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45483.42708333334</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>152</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>150.2599945068359</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>152</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>152</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>163203</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45483.46875</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>152.0800018310547</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>151.8500061035156</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>152.5800018310547</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>152.5800018310547</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>42441</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45483.51041666666</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>152.5800018310547</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>152.7899932861328</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>151.8899993896484</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>151.8899993896484</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>35196</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45483.55208333334</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>151.8899993896484</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>152.4199981689453</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>150.8000030517578</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>151.3200073242188</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>151.3200073242188</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>35442</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45483.59375</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>151.3000030517578</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>149.1799926757812</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>150.5800018310547</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>150.5800018310547</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>194705</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45483.63541666666</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>150.5800018310547</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>151</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>150.1999969482422</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>150.5299987792969</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>150.5299987792969</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>77065</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1464"/>
+  <dimension ref="A1:R1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82117,7 +82117,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82171,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82225,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82279,7 +82285,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82333,7 +82341,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82387,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82441,7 +82453,387 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45484.38541666666</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>154.2799987792969</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>152.0200042724609</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>152.0200042724609</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>187072</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45484.42708333334</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>151.9199981689453</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>152.6499938964844</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>150.9100036621094</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>151.1900024414062</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>151.1900024414062</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>88602</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45484.46875</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>151.3899993896484</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>150.8099975585938</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>150.8999938964844</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>150.8999938964844</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>76435</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45484.51041666666</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>151</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>151.3899993896484</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>150.8099975585938</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>151.0099945068359</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>151.0099945068359</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>38526</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45484.55208333334</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>151.0099945068359</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>151.1000061035156</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>149.4400024414062</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>150.1999969482422</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>150.1999969482422</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>111606</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45484.59375</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>150.3500061035156</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>150.3699951171875</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>149.7400054931641</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>150</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>75747</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45484.63541666666</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>149.9499969482422</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>150.2100067138672</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>149.1000061035156</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>149.6699981689453</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>149.6699981689453</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>60220</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1471"/>
+  <dimension ref="A1:R1478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82509,7 +82509,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82563,7 +82565,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82617,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82671,7 +82677,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82725,7 +82733,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82779,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82833,7 +82845,387 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45485.38541666666</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>150</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>151.4400024414062</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>149.0200042724609</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>149.0200042724609</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45485.42708333334</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>149.0200042724609</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>149.3800048828125</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>148.8500061035156</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>149.3399963378906</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>149.3399963378906</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>46882</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45485.46875</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>149.1900024414062</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>150.6999969482422</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>130670</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45485.51041666666</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>150.9100036621094</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>150.2400054931641</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>150.2400054931641</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>46793</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45485.55208333334</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>150.0200042724609</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>151.1799926757812</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>149.6300048828125</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>150</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>41346</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45485.59375</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>149.8500061035156</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>149.9499969482422</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>148.6399993896484</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>148.8999938964844</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>148.8999938964844</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>44229</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45485.63541666666</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>148.8500061035156</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>148.2200012207031</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>148.6100006103516</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>148.6100006103516</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>51456</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1478"/>
+  <dimension ref="A1:R1485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82901,7 +82901,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82955,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -83009,7 +83013,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83063,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83117,7 +83125,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83171,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83225,7 +83237,387 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45488.38541666666</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>150.1999969482422</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>150.1999969482422</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>148.6799926757812</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45488.42708333334</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>149.0599975585938</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>149.3999938964844</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>148.5800018310547</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>32505</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45488.46875</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>149.1999969482422</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>149.6999969482422</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>148.8000030517578</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>149.6999969482422</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>149.6999969482422</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>57772</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45488.51041666666</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>149.8000030517578</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>149.4600067138672</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>150.0800018310547</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>150.0800018310547</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>160027</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45488.55208333334</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>150.1000061035156</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>149.8500061035156</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>150.4400024414062</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>150.4400024414062</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>45099</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45488.59375</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>150.3000030517578</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>150.0099945068359</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>151.1799926757812</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>151.1799926757812</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>82045</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45488.63541666666</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>151.0299987792969</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>151.0299987792969</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>151.4299926757812</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>151.4299926757812</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>93415</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1485"/>
+  <dimension ref="A1:R1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83229,7 +83229,7 @@
         <v>28</v>
       </c>
       <c r="O1478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1478" t="n">
         <v>0</v>
@@ -83293,7 +83293,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83347,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83401,7 +83405,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83455,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83509,7 +83517,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83563,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83617,7 +83629,387 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45489.38541666666</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>152.6699981689453</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>156.3500061035156</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>152.3000030517578</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>155.1799926757812</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>155.1799926757812</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45489.42708333334</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>155.3000030517578</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>156.7799987792969</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>154.8999938964844</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>156.3399963378906</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>156.3399963378906</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>92746</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45489.46875</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>156</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>159.7200012207031</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>159</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>159</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>298067</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45489.51041666666</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>159</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>159.3899993896484</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>158.8500061035156</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>159.1000061035156</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>159.1000061035156</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>110495</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45489.55208333334</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>159.1000061035156</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>158.8699951171875</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>158.8699951171875</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>178383</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45489.59375</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>159</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>159.5200042724609</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>158.8300018310547</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>132763</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45489.63541666666</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>159.1999969482422</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>159.3899993896484</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>158.7599945068359</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>159.1600036621094</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>159.1600036621094</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>92468</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83739,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83793,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83847,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83901,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83955,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84009,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1492"/>
+  <dimension ref="A1:R1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84025,6 +84025,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45491.38541666666</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>162.8999938964844</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>157.3800048828125</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>158.4700012207031</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>158.4700012207031</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>441082</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45491.42708333334</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>158.3500061035156</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>158.3500061035156</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>111057</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45491.46875</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>156.2700042724609</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>63334</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45491.51041666666</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>157.6100006103516</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>157.8899993896484</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>156.3699951171875</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>156.4799957275391</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>156.4799957275391</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>18154</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45491.55208333334</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>156.3000030517578</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>157</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>157</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>157</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>23427</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45491.59375</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>157.0399932861328</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>157.1900024414062</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>155</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>155.3200073242188</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>155.3200073242188</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>68997</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45491.63541666666</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>155.3200073242188</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>157.2200012207031</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>155.0800018310547</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>155.8000030517578</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>155.8000030517578</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>35566</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1499"/>
+  <dimension ref="A1:R1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84069,7 +84069,7 @@
         <v>29</v>
       </c>
       <c r="O1493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1493" t="n">
         <v>0</v>
@@ -84077,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84131,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84185,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84239,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84293,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84347,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84401,7 +84413,387 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45492.38541666666</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>155.6000061035156</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>155.6000061035156</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>151.5200042724609</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>139778</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45492.42708333334</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>151.8200073242188</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>153</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>150.1600036621094</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>77112</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45492.46875</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>150.6000061035156</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>149.6699981689453</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>84262</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45492.51041666666</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>151.4400024414062</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>149.8200073242188</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>149.8200073242188</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>149.8200073242188</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>54896</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45492.55208333334</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>149.8000030517578</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>151.0299987792969</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>149.6499938964844</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>149.9499969482422</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>149.9499969482422</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>36890</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45492.59375</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>149.8999938964844</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>150.3600006103516</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>149.0700073242188</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>149.3500061035156</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>149.3500061035156</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>52813</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45492.63541666666</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>149.3699951171875</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>150.3300018310547</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>149.0099945068359</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>31608</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1506"/>
+  <dimension ref="A1:R1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84469,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84523,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84577,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84631,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84685,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>2</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84739,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84793,7 +84805,387 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45495.38541666666</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>149.3999938964844</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>150.3800048828125</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>146.1199951171875</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>150.1100006103516</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>150.1100006103516</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45495.42708333334</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>150.2899932861328</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>151.8999938964844</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>150.1600036621094</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>42665</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45495.46875</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>150.3500061035156</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>152.6900024414062</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>152.3500061035156</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>152.3500061035156</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>71801</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45495.51041666666</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>152.5299987792969</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>153.2299957275391</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>153.2299957275391</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>65201</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45495.55208333334</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>153.3800048828125</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>151.2700042724609</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>151.4499969482422</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>151.4499969482422</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>30017</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45495.59375</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>151.5899963378906</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>148.6499938964844</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>148.6499938964844</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>112053</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45495.63541666666</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>148.8899993896484</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>148.1000061035156</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>148.8200073242188</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>44720</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1513"/>
+  <dimension ref="A1:R1520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84861,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84915,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84969,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -85023,7 +85029,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -85077,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85131,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85185,7 +85197,387 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45496.38541666666</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>148.8000030517578</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>150.6999969482422</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>148.2200012207031</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>149.3999938964844</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>149.3999938964844</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>90208</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45496.42708333334</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>149.3999938964844</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>150.8399963378906</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>149.1900024414062</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>150.3600006103516</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>150.3600006103516</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>30988</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45496.46875</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>150.1799926757812</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>150.6900024414062</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>149</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>150.2899932861328</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>150.2899932861328</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>54768</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45496.51041666666</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>150.2799987792969</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>150.7100067138672</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>144.4299926757812</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>150.3500061035156</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>150.3500061035156</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>140169</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45496.55208333334</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>149.9799957275391</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>149.2299957275391</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>95892</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45496.59375</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>154</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>152.1799926757812</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>83798</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45496.63541666666</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>154.5899963378906</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>153.0200042724609</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>153.7299957275391</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>153.7299957275391</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>40032</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1520"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85253,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85307,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85361,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85407,7 +85413,7 @@
         <v>30</v>
       </c>
       <c r="O1517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1517" t="n">
         <v>0</v>
@@ -85415,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85469,7 +85477,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85523,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85577,7 +85589,387 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45497.38541666666</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>155</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>159.1100006103516</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>153</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>203871</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45497.42708333334</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>158.6900024414062</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>157.1000061035156</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>53193</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45497.46875</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>157.3899993896484</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>33087</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45497.51041666666</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>157.2899932861328</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>156.0299987792969</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>157.2899932861328</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>157.2899932861328</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>34001</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45497.55208333334</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>157.3200073242188</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>157.4100036621094</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>155.5800018310547</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>156.0099945068359</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>156.0099945068359</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>54252</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45497.59375</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>156.0099945068359</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>156.8800048828125</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>155.9900054931641</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>156.4299926757812</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>156.4299926757812</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>35742</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45497.63541666666</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>156.3099975585938</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>156.5200042724609</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>155.4600067138672</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>156.0399932861328</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>156.0399932861328</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>30563</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1527"/>
+  <dimension ref="A1:R1534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85645,7 +85645,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85699,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85753,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85807,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85861,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85915,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85969,7 +85981,387 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45498.38541666666</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>154.6600036621094</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>159.8000030517578</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>156.6499938964844</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>156.6499938964844</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45498.42708333334</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>156.0200042724609</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>156.2400054931641</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>156.2400054931641</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>32642</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45498.46875</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>156.4799957275391</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>159.6100006103516</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>155.4400024414062</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>159.6100006103516</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>159.6100006103516</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>75279</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45498.51041666666</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>159.4600067138672</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>159.4600067138672</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>157.0299987792969</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>59306</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45498.55208333334</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>158.2200012207031</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>156.5800018310547</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>156.8800048828125</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>156.8800048828125</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>47592</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45498.59375</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>157.0599975585938</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>157.0800018310547</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>154.7700042724609</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>154.7700042724609</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>56129</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45498.63541666666</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>154.6000061035156</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>156.3200073242188</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>153.7400054931641</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>155.0299987792969</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>155.0299987792969</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>49755</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1534"/>
+  <dimension ref="A1:R1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86037,7 +86037,9 @@
       <c r="Q1528" t="n">
         <v>1</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -86091,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86145,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86199,7 +86205,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86253,7 +86261,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86307,7 +86317,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86361,7 +86373,387 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45499.38541666666</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>158.8999938964844</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>162.2400054931641</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>159.8500061035156</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>159.8500061035156</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>440009</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45499.42708333334</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>159.9499969482422</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>161.75</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>158.6000061035156</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>160.5099945068359</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>160.5099945068359</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>165802</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45499.46875</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>160.1199951171875</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>160.75</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>158.8000030517578</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>159.2100067138672</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>159.2100067138672</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>74075</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45499.51041666666</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>159.2100067138672</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>159.9100036621094</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>159.3300018310547</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>159.3300018310547</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>58200</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45499.55208333334</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>159.5700073242188</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>158.5399932861328</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>159.1499938964844</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>39381</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45499.59375</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>159.3000030517578</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>159.3000030517578</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>157.8000030517578</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>84739</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>158.1100006103516</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>158.4900054931641</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>157.9499969482422</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>157.9499969482422</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>56607</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1541"/>
+  <dimension ref="A1:R1548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86365,7 +86365,7 @@
         <v>30</v>
       </c>
       <c r="O1534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1534" t="n">
         <v>0</v>
@@ -86421,7 +86421,7 @@
         <v>30</v>
       </c>
       <c r="O1535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1535" t="n">
         <v>0</v>
@@ -86429,7 +86429,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86483,7 +86485,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86537,7 +86541,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86591,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86645,7 +86653,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86699,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86753,7 +86765,387 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45502.38541666666</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>162</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>157.3200073242188</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>158.6199951171875</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>158.6199951171875</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45502.42708333334</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>158.3699951171875</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>161.1499938964844</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>158.1999969482422</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>159.9100036621094</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>159.9100036621094</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>133219</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45502.46875</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>160.2100067138672</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>158.6999969482422</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>159.1699981689453</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>159.1699981689453</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>38709</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45502.51041666666</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>158.9700012207031</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>158.9700012207031</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>157.3399963378906</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>157.5399932861328</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>157.5399932861328</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>82057</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45502.55208333334</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>157.7100067138672</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>158</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>156.4499969482422</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>156.6000061035156</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>156.6000061035156</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>46114</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45502.59375</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>156.6499938964844</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>157.0500030517578</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>156.3000030517578</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>156.3000030517578</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>46448</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45502.63541666666</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>156.2200012207031</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>156.2799987792969</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>156.2799987792969</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>28965</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1548"/>
+  <dimension ref="A1:R1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86821,7 +86821,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86875,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86929,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86983,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>1</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87037,7 +87045,9 @@
       <c r="Q1546" t="n">
         <v>2</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87091,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -87145,7 +87157,387 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45503.38541666666</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>157.6799926757812</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>156.4100036621094</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>93961</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45503.42708333334</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>158.7899932861328</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>156.6199951171875</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>157.8899993896484</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>157.8899993896484</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>47279</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45503.46875</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>157.9199981689453</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>158.3000030517578</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>157.3500061035156</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>158.0500030517578</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>158.0500030517578</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>36031</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45503.51041666666</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>157.9199981689453</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>158.0899963378906</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>156.5099945068359</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>43500</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45503.55208333334</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>157.0500030517578</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>157.7799987792969</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>156.5099945068359</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>12500</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45503.59375</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>157.2400054931641</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>158</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>157</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>157.1999969482422</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>157.1999969482422</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>26949</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45503.63541666666</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>157.1999969482422</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>157.8999938964844</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>157.1100006103516</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>157.3800048828125</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>157.3800048828125</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>17911</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1555"/>
+  <dimension ref="A1:R1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87093,7 +87093,7 @@
         <v>31</v>
       </c>
       <c r="O1547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1547" t="n">
         <v>0</v>
@@ -87149,7 +87149,7 @@
         <v>31</v>
       </c>
       <c r="O1548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1548" t="n">
         <v>0</v>
@@ -87213,7 +87213,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87267,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87321,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87375,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87429,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87483,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87537,7 +87549,387 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45504.38541666666</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>158.4900054931641</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>158.4900054931641</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>157.0200042724609</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>157.0800018310547</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>157.0800018310547</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45504.42708333334</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>157.1499938964844</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>157.6699981689453</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>156.8999938964844</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>157.3399963378906</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>157.3399963378906</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>19220</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45504.46875</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>157.3399963378906</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>52888</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45504.51041666666</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>158.1799926757812</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>157.4900054931641</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>157.6999969482422</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>30289</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45504.55208333334</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>157.6000061035156</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>157.8399963378906</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>21879</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45504.59375</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>156.9900054931641</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>157.3500061035156</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>156.6000061035156</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>156.6100006103516</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>156.6100006103516</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>18483</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45504.63541666666</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>156.6100006103516</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>156.7899932861328</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>156.2100067138672</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>156.6199951171875</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>156.6199951171875</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>24662</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1562"/>
+  <dimension ref="A1:R1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87605,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87659,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87713,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87767,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>1</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87821,7 +87829,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87875,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87929,7 +87941,387 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45505.38541666666</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>156.8999938964844</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>157.4600067138672</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>156</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>156</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>108980</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45505.42708333334</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>155.8899993896484</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>156.2200012207031</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>155.2100067138672</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>156.2100067138672</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>156.2100067138672</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>34517</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45505.46875</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>155.8699951171875</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>155.9700012207031</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>155.1000061035156</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>155.3699951171875</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>155.3699951171875</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>27254</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45505.51041666666</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>155.1100006103516</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>154.1600036621094</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>154.9700012207031</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>154.9700012207031</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>38643</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45505.55208333334</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>154.9900054931641</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>154.9900054931641</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>154.4299926757812</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>12691</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45505.59375</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>154.6000061035156</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>154.6000061035156</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>153.3999938964844</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>153.3999938964844</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>43894</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45505.63541666666</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>153.6000061035156</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>153.1999969482422</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>153.3999938964844</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>153.3999938964844</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>32545</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1569"/>
+  <dimension ref="A1:R1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87997,7 +87997,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -88051,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88105,7 +88109,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -88159,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88213,7 +88221,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -88267,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88321,7 +88333,387 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45506.38541666666</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>150.3999938964844</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>149.8899993896484</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>151.3699951171875</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>151.3699951171875</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>153943</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45506.42708333334</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>151.5299987792969</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>152.6600036621094</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>150.8899993896484</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>73893</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45506.46875</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>151.9400024414062</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>151</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>151.4199981689453</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>151.4199981689453</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>28255</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45506.51041666666</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>151.3300018310547</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>151.8600006103516</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>150.2100067138672</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>150.7299957275391</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>150.7299957275391</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>79374</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45506.55208333334</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>150.7200012207031</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>152.0800018310547</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>150.6199951171875</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>151.5800018310547</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>151.5800018310547</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>40269</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45506.59375</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>151.5899963378906</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>152.8999938964844</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>151</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>44226</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>152</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>150.6499938964844</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>151.5599975585938</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>151.5599975585938</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>30405</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1576"/>
+  <dimension ref="A1:R1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88389,7 +88389,9 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
@@ -88443,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88497,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88551,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88605,7 +88613,9 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
@@ -88659,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88713,7 +88725,387 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45509.38541666666</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>147.2100067138672</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>152.6000061035156</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>152.6000061035156</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45509.42708333334</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>152.7400054931641</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>155.3600006103516</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>150.0399932861328</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>150.3899993896484</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>150.3899993896484</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>167980</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45509.46875</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>150.3899993896484</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>148.5700073242188</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>153.3200073242188</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>137680</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45509.51041666666</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>153.3000030517578</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>154.4499969482422</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>152.0500030517578</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>152.8200073242188</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>152.8200073242188</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>121865</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45509.55208333334</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>152.8500061035156</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>159.8500061035156</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>152.5500030517578</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>156.6000061035156</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>156.6000061035156</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>457935</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45509.59375</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>156.3200073242188</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>152.6000061035156</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>153.1799926757812</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>153.1799926757812</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>208143</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45509.63541666666</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>153.1699981689453</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>153.9900054931641</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>152.6900024414062</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>153.2599945068359</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>153.2599945068359</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>80044</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1583"/>
+  <dimension ref="A1:R1590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88773,7 +88773,7 @@
         <v>32</v>
       </c>
       <c r="O1577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1577" t="n">
         <v>0</v>
@@ -88781,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88835,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88889,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88943,7 +88949,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88997,7 +89005,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -89051,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89105,7 +89117,387 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45510.38541666666</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>155.0399932861328</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>159.2700042724609</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>154.9400024414062</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>158.8399963378906</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>158.8399963378906</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>273621</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45510.42708333334</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>158.8500061035156</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>159.3000030517578</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>157.1000061035156</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>158.0500030517578</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>158.0500030517578</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>221389</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45510.46875</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>158.1399993896484</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>158.8099975585938</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>158</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>158.0500030517578</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>158.0500030517578</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>62895</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45510.51041666666</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>158.1999969482422</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>176296</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45510.55208333334</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>157.3000030517578</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>157.6699981689453</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>156.3000030517578</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>157</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>157</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>132732</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45510.59375</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>157</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>157.3500061035156</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>155.8000030517578</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>155.8000030517578</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>170426</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45510.63541666666</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>155.8000030517578</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>156</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>155.1199951171875</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>155.9499969482422</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>155.9499969482422</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>50354</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1590"/>
+  <dimension ref="A1:R1597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89173,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89227,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89281,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89335,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89389,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>1</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89443,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89497,7 +89509,387 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45511.38541666666</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>159</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>160.4799957275391</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>157.1699981689453</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>157.1699981689453</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>157.1699981689453</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>202523</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45511.42708333334</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>157.3200073242188</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>158.8600006103516</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>157</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>157.2799987792969</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>157.2799987792969</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>68177</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45511.46875</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>157.3800048828125</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>158</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>157</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>30241</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45511.51041666666</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>157.6799926757812</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>156.3099975585938</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>156.7299957275391</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>156.7299957275391</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>52719</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45511.55208333334</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>156.7299957275391</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>157.7299957275391</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>156.5099945068359</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>20845</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45511.59375</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>157.1100006103516</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>157.3099975585938</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>156.2100067138672</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>156.2100067138672</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>65342</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45511.63541666666</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>156.4900054931641</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>156.4499969482422</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>157.0500030517578</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>157.0500030517578</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>48787</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1597"/>
+  <dimension ref="A1:R1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89557,7 +89557,7 @@
         <v>32</v>
       </c>
       <c r="O1591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1591" t="n">
         <v>0</v>
@@ -89565,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89619,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89673,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89727,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89781,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89835,7 +89845,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89889,7 +89901,387 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45512.38541666666</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>156.7899932861328</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>159.5700073242188</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>156.0099945068359</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>156.7700042724609</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>156.7700042724609</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>164815</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45512.42708333334</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>156.6499938964844</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>159</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>156.6399993896484</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>158.0800018310547</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>158.0800018310547</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>70754</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45512.46875</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>158.2899932861328</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>158.4400024414062</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>156.1300048828125</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>157.2700042724609</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>50683</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45512.51041666666</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>157.3999938964844</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>157.5899963378906</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>156.1900024414062</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>156.1900024414062</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>23301</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45512.55208333334</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>156.4900054931641</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>156.7899932861328</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>156.0500030517578</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>17729</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45512.59375</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>156.2700042724609</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>156.3000030517578</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>155.6300048828125</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>155.6300048828125</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>66222</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45512.63541666666</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>155.6900024414062</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>154.3000030517578</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>155.0299987792969</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>155.0299987792969</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>24092</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1604"/>
+  <dimension ref="A1:R1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89957,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -90011,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90065,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90119,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90173,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>2</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90227,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90281,7 +90293,387 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45513.38541666666</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>157.5500030517578</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>154.5200042724609</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>154.9100036621094</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>154.9100036621094</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>118063</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45513.42708333334</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>154.9100036621094</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>154.9100036621094</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>153.8300018310547</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>154.3999938964844</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>154.3999938964844</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>46133</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45513.46875</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>154.3899993896484</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>154.4199981689453</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>153.1999969482422</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>153.6000061035156</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>153.6000061035156</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>38520</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45513.51041666666</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>153.6000061035156</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>153.9799957275391</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>153.4900054931641</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>153.7799987792969</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>153.7799987792969</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>37084</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45513.55208333334</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>153.7899932861328</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>153.9799957275391</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>153.1999969482422</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>153.8099975585938</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>18718</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45513.59375</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>153.8000030517578</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>151.6999969482422</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>152.4900054931641</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>152.4900054931641</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>89974</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>152.2400054931641</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>151.6499938964844</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>152.1399993896484</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>152.1399993896484</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>42257</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1611"/>
+  <dimension ref="A1:R1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="R216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -22254,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="R389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="R419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -28134,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -31102,7 +31102,7 @@
         <v>2</v>
       </c>
       <c r="R547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -32446,7 +32446,7 @@
         <v>2</v>
       </c>
       <c r="R571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="R594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -36478,7 +36478,7 @@
         <v>2</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644">
@@ -38830,7 +38830,7 @@
         <v>2</v>
       </c>
       <c r="R685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686">
@@ -42750,7 +42750,7 @@
         <v>2</v>
       </c>
       <c r="R755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -45830,7 +45830,7 @@
         <v>2</v>
       </c>
       <c r="R810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -48798,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -53726,7 +53726,7 @@
         <v>2</v>
       </c>
       <c r="R951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952">
@@ -55014,7 +55014,7 @@
         <v>0</v>
       </c>
       <c r="R974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -57254,7 +57254,7 @@
         <v>0</v>
       </c>
       <c r="R1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015">
@@ -61006,7 +61006,7 @@
         <v>0</v>
       </c>
       <c r="R1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082">
@@ -62406,7 +62406,7 @@
         <v>0</v>
       </c>
       <c r="R1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107">
@@ -63134,7 +63134,7 @@
         <v>2</v>
       </c>
       <c r="R1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120">
@@ -63414,7 +63414,7 @@
         <v>1</v>
       </c>
       <c r="R1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -64478,7 +64478,7 @@
         <v>2</v>
       </c>
       <c r="R1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -66270,7 +66270,7 @@
         <v>2</v>
       </c>
       <c r="R1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -68622,7 +68622,7 @@
         <v>0</v>
       </c>
       <c r="R1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218">
@@ -72542,7 +72542,7 @@
         <v>2</v>
       </c>
       <c r="R1287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1288">
@@ -73102,7 +73102,7 @@
         <v>1</v>
       </c>
       <c r="R1297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298">
@@ -74166,7 +74166,7 @@
         <v>2</v>
       </c>
       <c r="R1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -78422,7 +78422,7 @@
         <v>0</v>
       </c>
       <c r="R1392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393">
@@ -79430,7 +79430,7 @@
         <v>1</v>
       </c>
       <c r="R1410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411">
@@ -80718,7 +80718,7 @@
         <v>0</v>
       </c>
       <c r="R1433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434">
@@ -83854,7 +83854,7 @@
         <v>0</v>
       </c>
       <c r="R1489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490">
@@ -86038,7 +86038,7 @@
         <v>1</v>
       </c>
       <c r="R1528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1529">
@@ -86990,7 +86990,7 @@
         <v>1</v>
       </c>
       <c r="R1545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1546">
@@ -90349,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90403,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90457,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90511,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90565,7 +90573,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90619,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90673,7 +90685,387 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45516.38541666666</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>152</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>152.9299926757812</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>150.25</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>151.5700073242188</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>151.5700073242188</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45516.42708333334</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>151.5299987792969</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>155</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>151.5299987792969</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>154.4299926757812</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>154.4299926757812</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>45118</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45516.46875</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>154.4199981689453</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>155.2400054931641</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>154.1999969482422</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>154.9799957275391</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>154.9799957275391</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>122039</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45516.51041666666</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>154.9799957275391</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>154.8999938964844</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>33554</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45516.55208333334</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>155.6399993896484</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>155.8200073242188</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>154.8200073242188</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>155.3999938964844</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>42325</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45516.59375</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>155.4100036621094</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>163.5500030517578</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>155.1799926757812</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>162.6999969482422</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>162.6999969482422</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>996784</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>162.7400054931641</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>161.6600036621094</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>162.3699951171875</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>162.3699951171875</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>185575</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1618"/>
+  <dimension ref="A1:R1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="R216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="R229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -22254,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="R419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -28134,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="R494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -31102,7 +31102,7 @@
         <v>2</v>
       </c>
       <c r="R547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -32446,7 +32446,7 @@
         <v>2</v>
       </c>
       <c r="R571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -36478,7 +36478,7 @@
         <v>2</v>
       </c>
       <c r="R643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -38830,7 +38830,7 @@
         <v>2</v>
       </c>
       <c r="R685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -42750,7 +42750,7 @@
         <v>2</v>
       </c>
       <c r="R755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -45830,7 +45830,7 @@
         <v>2</v>
       </c>
       <c r="R810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -48798,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -53726,7 +53726,7 @@
         <v>2</v>
       </c>
       <c r="R951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -55014,7 +55014,7 @@
         <v>0</v>
       </c>
       <c r="R974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975">
@@ -57254,7 +57254,7 @@
         <v>0</v>
       </c>
       <c r="R1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -61006,7 +61006,7 @@
         <v>0</v>
       </c>
       <c r="R1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -62406,7 +62406,7 @@
         <v>0</v>
       </c>
       <c r="R1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -63134,7 +63134,7 @@
         <v>2</v>
       </c>
       <c r="R1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -63414,7 +63414,7 @@
         <v>1</v>
       </c>
       <c r="R1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125">
@@ -64478,7 +64478,7 @@
         <v>2</v>
       </c>
       <c r="R1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144">
@@ -66270,7 +66270,7 @@
         <v>2</v>
       </c>
       <c r="R1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176">
@@ -68622,7 +68622,7 @@
         <v>0</v>
       </c>
       <c r="R1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218">
@@ -72542,7 +72542,7 @@
         <v>2</v>
       </c>
       <c r="R1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
@@ -73102,7 +73102,7 @@
         <v>1</v>
       </c>
       <c r="R1297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298">
@@ -74166,7 +74166,7 @@
         <v>2</v>
       </c>
       <c r="R1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317">
@@ -78422,7 +78422,7 @@
         <v>0</v>
       </c>
       <c r="R1392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -79430,7 +79430,7 @@
         <v>1</v>
       </c>
       <c r="R1410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1411">
@@ -80718,7 +80718,7 @@
         <v>0</v>
       </c>
       <c r="R1433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434">
@@ -83854,7 +83854,7 @@
         <v>0</v>
       </c>
       <c r="R1489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490">
@@ -86038,7 +86038,7 @@
         <v>1</v>
       </c>
       <c r="R1528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529">
@@ -86990,7 +86990,7 @@
         <v>1</v>
       </c>
       <c r="R1545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1546">
@@ -90733,7 +90733,7 @@
         <v>33</v>
       </c>
       <c r="O1612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1612" t="n">
         <v>0</v>
@@ -90741,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90795,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90849,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90903,7 +90909,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90957,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -91011,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91065,7 +91077,387 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45517.38541666666</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>163.4700012207031</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>163.6999969482422</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>159.6499938964844</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>160.0099945068359</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>160.0099945068359</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>238263</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45517.42708333334</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>160.0399932861328</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>160.8099975585938</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>158.9400024414062</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>158.9400024414062</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>94592</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45517.46875</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>158.9400024414062</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>158.5099945068359</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>159.8399963378906</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>159.8399963378906</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>51904</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45517.51041666666</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>159.3899993896484</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>159.6900024414062</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>156.8300018310547</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>157.3699951171875</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>157.3699951171875</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>69219</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45517.55208333334</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>157.4299926757812</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>157.7799987792969</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>156.6799926757812</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>156.6799926757812</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>80077</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45517.59375</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>156.5899963378906</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>156.8000030517578</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>155</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>155.1999969482422</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>155.1999969482422</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>62404</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45517.63541666666</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>155</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>155.2700042724609</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>154.1999969482422</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>154.8699951171875</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>154.8699951171875</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>69416</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1625"/>
+  <dimension ref="A1:R1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91125,7 +91125,7 @@
         <v>33</v>
       </c>
       <c r="O1619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1619" t="n">
         <v>0</v>
@@ -91133,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91187,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91241,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91295,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91349,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>1</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91403,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91457,7 +91469,387 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45518.38541666666</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>155.7899932861328</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>152.1900024414062</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>154.6799926757812</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>154.6799926757812</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>191440</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45518.42708333334</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>154.6799926757812</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>154.9600067138672</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>154.4199981689453</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>48921</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45518.46875</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>155.5399932861328</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>155.1900024414062</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>155.1900024414062</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>29749</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45518.51041666666</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>155.1699981689453</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>156.6000061035156</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>155.0500030517578</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>155.3300018310547</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>155.3300018310547</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>47370</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45518.55208333334</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>155.5299987792969</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>155.9299926757812</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>155</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>155.9299926757812</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>155.9299926757812</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>20442</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45518.59375</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>156</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>156.1000061035156</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>58198</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45518.63541666666</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>153.5099945068359</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>154.8899993896484</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>153</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>153.6999969482422</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>153.6999969482422</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>29772</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -91525,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91579,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91633,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91687,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91741,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>2</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91795,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91849,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1632"/>
+  <dimension ref="A1:R1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91517,7 +91517,7 @@
         <v>33</v>
       </c>
       <c r="O1626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1626" t="n">
         <v>0</v>
@@ -91864,6 +91864,384 @@
       <c r="R1632" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45520.38541666666</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>155.4499969482422</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>155.9100036621094</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>152.9100036621094</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>153.4799957275391</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>153.4799957275391</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>160510</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45520.42708333334</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>153.3300018310547</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>154.4400024414062</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>152.8000030517578</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>153.3399963378906</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>153.3399963378906</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>48575</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45520.46875</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>153.3399963378906</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>154.8899993896484</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>153.3399963378906</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>25411</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45520.51041666666</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>154.0599975585938</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>154.8099975585938</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>45832</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45520.55208333334</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>154.1300048828125</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>154.7799987792969</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>154.1000061035156</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>154.6499938964844</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>154.6499938964844</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>13755</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45520.59375</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>154.6499938964844</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>157.4499969482422</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>154.5399932861328</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>156.4199981689453</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>156.4199981689453</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>83852</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>156.4299926757812</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>159.3800048828125</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>155.9499969482422</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>158.0099945068359</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>116545</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1639"/>
+  <dimension ref="A1:R1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91917,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91971,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92025,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92079,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92133,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>1</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92187,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92241,7 +92253,387 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45523.38541666666</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>159.6499938964844</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>162.6900024414062</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>159.7100067138672</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>159.7100067138672</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45523.42708333334</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>159.7100067138672</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>161.8999938964844</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>161.2200012207031</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>161.2200012207031</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>145403</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45523.46875</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>161.0099945068359</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>160.4100036621094</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>160.8000030517578</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>160.8000030517578</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>184564</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45523.51041666666</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>160.8099975585938</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>161.2100067138672</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>58100</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45523.55208333334</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>160.0899963378906</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>160.6300048828125</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>159.0099945068359</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>159.6399993896484</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>159.6399993896484</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>50929</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45523.59375</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>159.6399993896484</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>159.2200012207031</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>159.6999969482422</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>159.6999969482422</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>52391</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45523.63541666666</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>159.1999969482422</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>159.6900024414062</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>159.6900024414062</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>39369</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1646"/>
+  <dimension ref="A1:R1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92309,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92363,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92417,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92471,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92525,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92579,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92633,7 +92645,387 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45524.38541666666</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>161.7899932861328</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>167.4400024414062</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>160.1999969482422</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>162.4299926757812</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>162.4299926757812</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>996578</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45524.42708333334</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>162.5599975585938</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>163.4499969482422</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>160.7599945068359</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>160.7599945068359</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>578645</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45524.46875</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>160.7599945068359</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>161.3999938964844</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>160.1100006103516</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>161.2200012207031</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>161.2200012207031</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>69033</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45524.51041666666</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>161.2200012207031</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>163.3800048828125</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>161.1999969482422</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>162.7899932861328</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>162.7899932861328</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>79754</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45524.55208333334</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>162.5899963378906</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>162.6000061035156</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>160.9499969482422</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>162.1199951171875</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>162.1199951171875</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>55755</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45524.59375</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>162.1399993896484</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>162.3399963378906</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>161.3099975585938</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>69891</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45524.63541666666</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>161.2200012207031</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>161.3999938964844</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>161.0700073242188</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>161.0700073242188</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>72684</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1653"/>
+  <dimension ref="A1:R1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92693,7 +92693,7 @@
         <v>34</v>
       </c>
       <c r="O1647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1647" t="n">
         <v>0</v>
@@ -92701,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92755,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92809,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92863,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92917,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92971,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93025,7 +93037,387 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45525.38541666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>161.4900054931641</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>163.3300018310547</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>161.3699951171875</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>161.9799957275391</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>161.9799957275391</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>136101</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45525.42708333334</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>161.8699951171875</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>163.9900054931641</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>160.8300018310547</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>163.3399963378906</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>163.3399963378906</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>177022</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45525.46875</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>163.3300018310547</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>167</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>163.0299987792969</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>358999</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45525.51041666666</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>166.0800018310547</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>166.9499969482422</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>163.3099975585938</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>201481</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45525.55208333334</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>163.9199981689453</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>164.7200012207031</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>164.7200012207031</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>93718</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45525.59375</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>164.7200012207031</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>173.1399993896484</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>164.0099945068359</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>171.7700042724609</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>171.7700042724609</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>1416550</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45525.63541666666</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>171.9700012207031</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>173.4499969482422</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>171.0200042724609</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>171.0200042724609</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>171.0200042724609</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>653050</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1660"/>
+  <dimension ref="A1:R1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93093,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93147,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93201,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93255,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93309,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>2</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93363,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93417,7 +93429,387 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45526.38541666666</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>174.3999938964844</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>168.3099975585938</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>169.1600036621094</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>169.1600036621094</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45526.42708333334</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>169.2100067138672</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>168.25</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>172.3399963378906</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>172.3399963378906</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>831192</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45526.46875</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>172.5200042724609</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>172.6999969482422</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>169.4100036621094</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>135937</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45526.51041666666</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>169.7599945068359</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>171.6000061035156</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>168.7299957275391</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>170.8200073242188</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>170.8200073242188</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>169019</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45526.55208333334</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>170.8200073242188</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>170.9400024414062</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>170</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>170.5200042724609</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>170.5200042724609</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>71084</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45526.59375</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>170.2799987792969</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>170.7700042724609</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>169.1499938964844</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>169.1499938964844</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>149622</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45526.63541666666</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>169.0500030517578</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>169.3500061035156</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>166.2899932861328</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>167.6600036621094</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>167.6600036621094</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>241226</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1667"/>
+  <dimension ref="A1:R1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93485,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93539,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93593,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93647,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93701,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93755,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93809,7 +93821,387 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45527.38541666666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>168.3500061035156</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>168.9199981689453</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>167</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>168.0700073242188</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>168.0700073242188</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>231215</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45527.42708333334</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>168.0700073242188</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>312705</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45527.46875</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>169.2799987792969</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>169.2799987792969</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>169.2799987792969</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>107545</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45527.51041666666</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>169.2400054931641</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>175.6999969482422</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>169.0200042724609</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>171.7400054931641</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>171.7400054931641</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>717546</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45527.55208333334</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>171.5500030517578</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>174.3999938964844</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>259879</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45527.59375</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>177.2599945068359</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>174.5099945068359</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>174.5099945068359</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>930691</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45527.63541666666</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>174.8899993896484</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>174.5200042724609</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>179</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>179</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>1078304</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1674"/>
+  <dimension ref="A1:R1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93877,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93931,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93985,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94039,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94093,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94147,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94201,7 +94213,387 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45530.38541666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>182</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>181.1999969482422</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>181.1999969482422</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45530.42708333334</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>181.3200073242188</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>181.8200073242188</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>534400</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45530.46875</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>177.0800018310547</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>178.9400024414062</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>178.9400024414062</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>311669</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45530.51041666666</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>178.6699981689453</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>181.3999938964844</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>178</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>179.7400054931641</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>179.7400054931641</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>292171</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45530.55208333334</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>180.3500061035156</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>178.2700042724609</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>178.8899993896484</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>178.8899993896484</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>141428</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45530.59375</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>178.8899993896484</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>179</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>176.8899993896484</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>176.8899993896484</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>273327</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45530.63541666666</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>176.6699981689453</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>177.1999969482422</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>175.9499969482422</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>176.7299957275391</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>176.7299957275391</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>205568</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1681"/>
+  <dimension ref="A1:R1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94261,7 +94261,7 @@
         <v>35</v>
       </c>
       <c r="O1675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1675" t="n">
         <v>0</v>
@@ -94269,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94323,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94377,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94431,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94485,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94539,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94593,7 +94605,387 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45531.38541666666</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>177</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>181.3399963378906</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>176.0500030517578</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>178.8999938964844</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>178.8999938964844</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>453375</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45531.42708333334</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>178.8500061035156</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>181.25</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>178.8500061035156</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>214072</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45531.46875</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>180.2299957275391</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>177.5599975585938</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>178.1799926757812</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>178.1799926757812</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>110882</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45531.51041666666</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>178.4199981689453</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>179.3899993896484</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>177.5099945068359</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>65977</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45531.55208333334</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>177.8500061035156</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>179.0099945068359</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>176.5599975585938</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>176.8699951171875</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>176.8699951171875</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>97296</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45531.59375</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>176.8800048828125</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>177.8000030517578</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>176</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>177.3500061035156</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>177.3500061035156</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>140864</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45531.63541666666</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>177.5899963378906</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>177.8000030517578</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>176.1199951171875</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>177.0099945068359</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>177.0099945068359</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>107527</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1688"/>
+  <dimension ref="A1:R1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94661,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94715,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94769,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94823,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94877,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>2</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94931,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94985,7 +94997,387 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45532.38541666666</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>176.6799926757812</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>176.8399963378906</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>174</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>174</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>295666</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45532.42708333334</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>173.8000030517578</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>174.9600067138672</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>173.7700042724609</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>174.6199951171875</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>174.6199951171875</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>69579</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45532.46875</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>174.6100006103516</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>174.8399963378906</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>174.1000061035156</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>174.4100036621094</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>174.4100036621094</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>51968</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45532.51041666666</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>174.25</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>173.1999969482422</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>173.6000061035156</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>85047</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45532.55208333334</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>173.5599975585938</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>174.3300018310547</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>173.1999969482422</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>173.2200012207031</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>173.2200012207031</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>47670</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45532.59375</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>173.2299957275391</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>173.3899993896484</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>170.3000030517578</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>170.7100067138672</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>170.7100067138672</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>210590</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45532.63541666666</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>170.9400024414062</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>171.8500061035156</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>170.4199981689453</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>171.8399963378906</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>171.8399963378906</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>56217</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1695"/>
+  <dimension ref="A1:R1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95053,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95107,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95161,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95215,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95269,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95323,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95377,7 +95389,387 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45533.38541666666</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>173.8200073242188</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>170.5500030517578</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>171.9900054931641</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>171.9900054931641</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>207874</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45533.42708333334</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>171.8000030517578</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>171.8200073242188</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>167.1499938964844</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>167.5700073242188</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>167.5700073242188</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>312995</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45533.46875</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>167.7400054931641</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>168.4600067138672</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>167.0399932861328</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>57419</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45533.51041666666</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>167.8699951171875</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>168.9499969482422</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>167.8600006103516</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>168.0700073242188</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>168.0700073242188</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>28984</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45533.55208333334</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>168.1999969482422</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>168.2599945068359</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>165.7200012207031</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>166.6000061035156</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>166.6000061035156</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>75465</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45533.59375</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>166.8500061035156</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>168.4400024414062</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>166.8200073242188</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>167.3800048828125</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>167.3800048828125</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>127891</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45533.63541666666</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>167.4299926757812</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>167.7200012207031</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>166.2200012207031</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>166.9900054931641</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>166.9900054931641</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>58645</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1702"/>
+  <dimension ref="A1:R1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95445,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95499,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95553,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95607,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95661,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95715,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95769,7 +95781,387 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45534.38541666666</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>168.6999969482422</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>169.3000030517578</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>165.4299926757812</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>165.8600006103516</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>165.8600006103516</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>172370</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45534.42708333334</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>165.7299957275391</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>167.9600067138672</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>165.1499938964844</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>166.3899993896484</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>166.3899993896484</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>116870</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45534.46875</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>166.3099975585938</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>167.3300018310547</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>166.2700042724609</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>166.5099945068359</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>166.5099945068359</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>34512</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45534.51041666666</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>166.5099945068359</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>167.3300018310547</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>166.3999938964844</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>166.6199951171875</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>166.6199951171875</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>39012</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45534.55208333334</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>166.6199951171875</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>168.8300018310547</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>167.8000030517578</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>167.8000030517578</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>74632</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45534.59375</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>167.7799987792969</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>167.7799987792969</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>166.3300018310547</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>166.6999969482422</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>166.6999969482422</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>49774</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>166.4400024414062</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>166.2799987792969</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>167.6799926757812</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>167.6799926757812</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>90386</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1709"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95837,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95891,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95945,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95999,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96053,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96107,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96161,7 +96173,387 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45537.38541666666</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>169.3500061035156</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>169.5099945068359</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>166.3699951171875</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>166.7899932861328</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>166.7899932861328</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45537.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>166.7299957275391</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>167.6399993896484</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>165.8000030517578</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>165.9900054931641</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>165.9900054931641</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>115788</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45537.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>165.9900054931641</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>166.2299957275391</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>164.2100067138672</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>164.6100006103516</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>164.6100006103516</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>77282</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45537.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>164.6399993896484</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>165.3500061035156</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>163.25</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>164.5399932861328</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>164.5399932861328</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>94484</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45537.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>164.9799957275391</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>166.8800048828125</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>164.9799957275391</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>165.9499969482422</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>96773</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45537.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>166.0800018310547</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>178.25</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>165.9199981689453</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>1085049</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45537.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>175.7299957275391</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>178.0500030517578</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>175</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>176.7599945068359</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>176.7599945068359</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>188045</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96383,7 +96389,7 @@
         <v>36</v>
       </c>
       <c r="O1713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1713" t="n">
         <v>0</v>
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96499,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96553,7 +96565,387 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45538.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>178.2100067138672</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>185</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>178.2100067138672</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>179.1000061035156</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>179.1000061035156</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45538.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>179.2400054931641</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>577835</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45538.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>182.0099945068359</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>180.4400024414062</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>180.8399963378906</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>180.8399963378906</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>171096</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45538.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>180.6699981689453</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>181.1999969482422</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>179.7599945068359</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>180.8200073242188</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>180.8200073242188</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>125044</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45538.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>180.8899993896484</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>181.9400024414062</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>178.2899932861328</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>178.5299987792969</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>178.5299987792969</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>178554</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45538.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>178.8200073242188</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>179.5899963378906</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>178.0099945068359</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>178.3999938964844</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>174627</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45538.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>178.6300048828125</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>178.6999969482422</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>177.6900024414062</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>178.3699951171875</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>178.3699951171875</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>144661</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1723"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96613,7 +96613,7 @@
         <v>36</v>
       </c>
       <c r="O1717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1717" t="n">
         <v>0</v>
@@ -96621,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96675,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96729,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96783,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96837,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96891,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96945,7 +96957,387 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45539.38541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>173.6100006103516</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>178.3200073242188</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>173.6100006103516</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>177.6399993896484</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>177.6399993896484</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>224782</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45539.42708333334</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>177.9499969482422</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>177.9799957275391</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>175.5800018310547</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>176</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>176</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>101479</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45539.46875</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>175.8000030517578</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>175.8000030517578</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>175.1699981689453</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>175.1699981689453</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>70780</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45539.51041666666</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>175.3099975585938</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>176.2700042724609</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>175.0099945068359</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>175.9600067138672</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>175.9600067138672</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>25497</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45539.55208333334</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>175.9700012207031</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>175.7799987792969</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>176.2200012207031</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>176.2200012207031</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>26513</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45539.59375</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>176.1900024414062</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>175.0399932861328</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>175.5099945068359</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>175.5099945068359</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>76877</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45539.63541666666</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>175.3300018310547</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>174.6999969482422</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>46843</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97013,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>1</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97067,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97121,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97175,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97229,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>2</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97283,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97337,7 +97349,387 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45540.38541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>184.2899932861328</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>183.7200012207031</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>183.7200012207031</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>925040</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45540.42708333334</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>183.7700042724609</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>183.7700042724609</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>182.0700073242188</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>387380</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45540.46875</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>183.1000061035156</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>187.8300018310547</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>181.3099975585938</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>185.2899932861328</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>185.2899932861328</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>1800927</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45540.51041666666</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>185.1999969482422</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>185.6699981689453</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>184.0200042724609</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>184.8500061035156</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>184.8500061035156</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>389292</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45540.55208333334</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>184.8600006103516</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>187.8999938964844</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>184.5299987792969</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>187.4600067138672</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>187.4600067138672</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>998609</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45540.59375</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>187.4700012207031</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>188.6000061035156</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>186.1600036621094</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>187.3000030517578</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>187.3000030517578</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>1036583</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45540.63541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>187.1699981689453</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>188.8999938964844</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>187</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>188.6499938964844</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>188.6499938964844</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>534256</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1737"/>
+  <dimension ref="A1:R1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97405,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97459,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97513,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97567,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97621,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97675,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97729,7 +97741,387 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45541.38541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>189.9499969482422</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>192.8500061035156</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>183.0599975585938</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>185.4100036621094</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>185.4100036621094</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45541.42708333334</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>185.1399993896484</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>184.5800018310547</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>192</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>192</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>1052461</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45541.46875</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>191.9700012207031</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>193.1999969482422</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>190.3000030517578</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>192.6399993896484</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>192.6399993896484</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>901069</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45541.51041666666</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>192.6000061035156</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>193.1999969482422</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>188.5399932861328</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>189.0599975585938</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>189.0599975585938</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>467813</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45541.55208333334</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>189.1300048828125</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>190.6300048828125</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>188.5899963378906</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>189.2100067138672</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>189.2100067138672</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>226290</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45541.59375</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>189.3999938964844</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>185.8000030517578</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>187.1199951171875</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>187.1199951171875</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>621372</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45541.63541666666</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>187.25</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>187.25</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>186.1799926757812</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>186.9900054931641</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>186.9900054931641</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>180279</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1744"/>
+  <dimension ref="A1:R1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97797,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97851,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97897,7 +97901,7 @@
         <v>36</v>
       </c>
       <c r="O1740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1740" t="n">
         <v>0</v>
@@ -97905,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97951,7 +97957,7 @@
         <v>36</v>
       </c>
       <c r="O1741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1741" t="n">
         <v>0</v>
@@ -97959,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98013,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98067,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98121,7 +98133,387 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45544.38541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>187.3800048828125</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>182.8899993896484</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>187.8999938964844</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>187.8999938964844</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45544.42708333334</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>188.0099945068359</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>190</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>187.1100006103516</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>188</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>188</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>207506</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45544.46875</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>188</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>189.3000030517578</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>187</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>188.2899932861328</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>188.2899932861328</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>167868</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45544.51041666666</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>188.2700042724609</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>184.5099945068359</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>276056</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45544.55208333334</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>185.3200073242188</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>186.3000030517578</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>185.1199951171875</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>186</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>186</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>69599</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45544.59375</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>185.8000030517578</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>186.1999969482422</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>186.1999969482422</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>225739</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45544.63541666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>186.2100067138672</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>186.3399963378906</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>151510</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1751"/>
+  <dimension ref="A1:R1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98181,7 +98181,7 @@
         <v>37</v>
       </c>
       <c r="O1745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1745" t="n">
         <v>0</v>
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98243,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98297,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98351,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98405,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98459,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98513,7 +98525,387 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45545.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>186.0399932861328</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>190.1999969482422</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>185.6000061035156</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>189.1900024414062</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>189.1900024414062</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>719438</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45545.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>189.3000030517578</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>189.8899993896484</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>188.6999969482422</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>181087</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45545.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>189</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>189</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>193.4400024414062</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>193.4400024414062</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>1605113</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45545.51041666666</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>193.3999938964844</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>194.6699981689453</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>192.7400054931641</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>193.6499938964844</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>193.6499938964844</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>222561</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45545.55208333334</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>193.8300018310547</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>198.4600067138672</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>193.2700042724609</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>195.8600006103516</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>195.8600006103516</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>1080024</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45545.59375</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>195.6100006103516</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>195.6100006103516</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>199.1900024414062</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>199.1900024414062</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>1365312</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45545.63541666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>199.1900024414062</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>202.6999969482422</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>199.1100006103516</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>202.1000061035156</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>202.1000061035156</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>1287201</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1758"/>
+  <dimension ref="A1:R1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98581,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>2</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98635,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98689,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98743,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98797,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>1</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98851,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98905,7 +98917,387 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45546.38541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>205.9600067138672</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>209.1000061035156</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>203.2100067138672</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>208.6100006103516</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>208.6100006103516</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>4005348</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45546.42708333334</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>208.7599945068359</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>209.8999938964844</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>205</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>206.2799987792969</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>206.2799987792969</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>1002732</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45546.46875</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>206.2200012207031</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>207.9499969482422</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>204.1699981689453</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>204.4199981689453</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>204.4199981689453</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>462586</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45546.51041666666</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>204.4199981689453</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>205.25</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>203</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>338874</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45546.55208333334</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>203.5500030517578</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>198.0500030517578</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>496817</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45546.59375</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>198.6799926757812</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>201.9600067138672</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>197.8399963378906</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>197.8399963378906</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>865996</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45546.63541666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>197.8800048828125</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>198</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>195.5800018310547</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>405434</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1765"/>
+  <dimension ref="A1:R1772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98973,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99019,7 +99021,7 @@
         <v>37</v>
       </c>
       <c r="O1760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1760" t="n">
         <v>0</v>
@@ -99027,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99081,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99135,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99189,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99243,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99297,7 +99309,387 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45547.38541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>200.5800018310547</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>206.5500030517578</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>200.3899993896484</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>201.0399932861328</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>201.0399932861328</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45547.42708333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>201</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>207</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>200.8699951171875</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>827434</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45547.46875</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>202.7700042724609</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>203.4100036621094</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>201.8399963378906</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>201.8399963378906</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>343631</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45547.51041666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>201.6999969482422</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>205.7400054931641</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>201.0299987792969</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>379428</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45547.55208333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>203.7200012207031</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>204.6499938964844</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>202.3899993896484</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>203</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>203</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>213461</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45547.59375</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>202.9799957275391</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>202.9799957275391</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>201.3000030517578</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>201.8999938964844</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>201.8999938964844</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>357914</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45547.63541666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>201.8500061035156</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>203.5899963378906</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>201.6399993896484</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>221855</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1772"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99365,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99419,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99473,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99527,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99581,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99635,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>2</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99689,7 +99701,387 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45548.38541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>205</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>202.0099945068359</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>202.8200073242188</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>202.8200073242188</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45548.42708333334</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>203.1499938964844</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>204.3800048828125</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>201.2200012207031</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>201.8999938964844</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>201.8999938964844</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>284807</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45548.46875</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>201.6100006103516</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>202.9900054931641</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>201.4100036621094</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>202.2200012207031</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>202.2200012207031</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>134514</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45548.51041666666</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>202.1900024414062</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>204.3099975585938</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>202.1100006103516</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>202.2599945068359</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>202.2599945068359</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>158683</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45548.55208333334</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>202.5099945068359</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>197.3500061035156</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>198.2100067138672</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>198.2100067138672</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>293433</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45548.59375</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>200.5599975585938</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>197.5099945068359</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>197.9700012207031</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>197.9700012207031</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>272387</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45548.63541666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>197.9700012207031</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>199.8999938964844</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>197.7299957275391</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>199.1000061035156</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>199.1000061035156</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>136600</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99757,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99811,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99865,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99919,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99973,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100027,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100081,7 +100093,387 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45551.38541666666</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>204.1499938964844</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>198.8200073242188</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>199.0800018310547</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>199.0800018310547</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45551.42708333334</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>199.1000061035156</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>199.6999969482422</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>199.1199951171875</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>199.1199951171875</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>257297</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45551.46875</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>195.9299926757812</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>196</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>196</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>157401</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45551.51041666666</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>196.1799926757812</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>197.4499969482422</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>195.6000061035156</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>206164</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45551.55208333334</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>196.3500061035156</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>198.1399993896484</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>195.8000030517578</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>175164</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45551.59375</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>196.6000061035156</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>197.8000030517578</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>195.7599945068359</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>196</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>196</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>163971</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45551.63541666666</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>196</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>197.6499938964844</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>195.2599945068359</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>197.6000061035156</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>197.6000061035156</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>156271</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1786"/>
+  <dimension ref="A1:R1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100149,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100203,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100257,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100311,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100365,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100419,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100473,7 +100485,765 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45552.38541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>196.8999938964844</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>197.3200073242188</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>190.8500061035156</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>190.8500061035156</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>733198</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45552.42708333334</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>190.6999969482422</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>193.3999938964844</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>192.1999969482422</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>192.1999969482422</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>167390</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45552.46875</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>192.0500030517578</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>195.3200073242188</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>192.0200042724609</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>194.4900054931641</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>194.4900054931641</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>238382</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45552.51041666666</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>194.4499969482422</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>195</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>193.5200042724609</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>194.3500061035156</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>194.3500061035156</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>56925</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45552.55208333334</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>194.5899963378906</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>195.0299987792969</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>192.5099945068359</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>193.7700042724609</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>193.7700042724609</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>128474</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45552.59375</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>193.8600006103516</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>193.8600006103516</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>191.75</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>191.9799957275391</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>191.9799957275391</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>118927</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45552.63541666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>192.1199951171875</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>192.1199951171875</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>192</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>192</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>113048</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45553.38541666666</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>192.6000061035156</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>195.3399963378906</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>191</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>191.1000061035156</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>191.1000061035156</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45553.42708333334</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>191.1199951171875</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>193.1499938964844</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>191</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>192.1600036621094</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>192.1600036621094</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>157459</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45553.46875</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>192.2100067138672</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>192.4199981689453</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>191.4499969482422</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>191.6100006103516</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>191.6100006103516</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>69061</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45553.51041666666</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>191.6399993896484</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>192.8999938964844</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>190.3699951171875</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>106293</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45553.55208333334</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>190.7299957275391</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>191.5399932861328</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>188.6000061035156</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>190.5299987792969</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>190.5299987792969</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>207272</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45553.59375</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>190.5299987792969</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>190.7200012207031</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>189.0399932861328</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>189.8899993896484</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>189.8899993896484</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>101819</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45553.63541666666</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>189.6499938964844</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>190.4299926757812</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>188.8000030517578</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>190</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>190</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>99016</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1800"/>
+  <dimension ref="A1:R1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100541,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100595,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100649,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100703,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100757,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100811,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100865,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100919,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100973,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101027,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101081,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101135,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101189,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101243,7 +101269,387 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45554.38541666666</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>192</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>192.9600067138672</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>186.3899993896484</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>186.6399993896484</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>186.6399993896484</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45554.42708333334</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>186.8000030517578</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>187</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>183.2599945068359</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>295830</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45554.46875</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>183.5200042724609</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>183.5500030517578</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>334448</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45554.51041666666</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>184.9499969482422</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>182.75</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>182.9199981689453</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>182.9199981689453</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>117536</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45554.55208333334</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>182.7599945068359</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>183.3500061035156</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>181.0099945068359</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>181.3800048828125</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>181.3800048828125</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>141869</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45554.59375</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>181.3600006103516</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>180.8699951171875</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>182.1900024414062</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>182.1900024414062</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>126964</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45554.63541666666</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>182.2599945068359</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>183.8999938964844</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>181.4900054931641</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>183.6499938964844</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>183.6499938964844</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>94795</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101325,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101379,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101425,7 +101429,7 @@
         <v>38</v>
       </c>
       <c r="O1803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1803" t="n">
         <v>0</v>
@@ -101433,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101487,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101541,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101595,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101649,7 +101661,387 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45555.38541666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>188</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>181.4100036621094</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>183.0599975585938</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>183.0599975585938</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>427130</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45555.42708333334</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>182.7299957275391</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>184.3399963378906</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>183</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>183</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>176083</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45555.46875</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>183</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>182.2100067138672</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>182.3899993896484</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>182.3899993896484</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>55900</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45555.51041666666</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>182.4499969482422</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>185.0399932861328</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>182.0299987792969</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>184.1000061035156</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>184.1000061035156</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>148042</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45555.55208333334</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>184.3000030517578</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>184.3000030517578</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>181.5500030517578</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>182.3399963378906</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>182.3399963378906</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>109972</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45555.59375</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>182.3000030517578</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>182.75</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>181.1100006103516</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>182.3000030517578</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>182.3000030517578</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>132223</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>182.0299987792969</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>182.4400024414062</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>180.2200012207031</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>181.5700073242188</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>181.5700073242188</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>121995</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1814"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101717,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101771,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101825,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101879,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101933,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101987,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102041,7 +102053,387 @@
       <c r="Q1814" t="n">
         <v>1</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45558.38541666666</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>181</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>184.6900024414062</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>180.8600006103516</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45558.42708333334</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>182.1699981689453</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>181.5200042724609</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>185.3800048828125</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>185.3800048828125</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>359761</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45558.46875</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>185.3999938964844</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>185.5800018310547</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>184.1399993896484</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>184.1399993896484</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>98245</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45558.51041666666</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>184.3200073242188</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>184.7299957275391</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>182.9100036621094</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>82274</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45558.55208333334</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>183.8099975585938</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>183.4100036621094</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>183.4100036621094</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>60045</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45558.59375</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>183.4100036621094</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>183.5200042724609</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>182.75</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>182.8800048828125</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>182.8800048828125</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>82692</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45558.63541666666</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>182.8000030517578</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>182.8899993896484</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>181.25</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>182.3899993896484</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>182.3899993896484</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>98546</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEROFLEX.NS.xlsx
+++ b/stock_historical_data/60m/AEROFLEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102109,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102155,7 +102157,7 @@
         <v>39</v>
       </c>
       <c r="O1816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1816" t="n">
         <v>0</v>
@@ -102163,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102217,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102271,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102325,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102379,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102433,7 +102445,387 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45559.38541666666</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>184.2400054931641</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>181.4799957275391</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45559.42708333334</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>182.9799957275391</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>183.8899993896484</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>182.1699981689453</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>182.1699981689453</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>93217</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45559.46875</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>181.9700012207031</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>182.1699981689453</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>178.9900054931641</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>181.3000030517578</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>181.3000030517578</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>206278</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45559.51041666666</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>181.1499938964844</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>181.9700012207031</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>180.2799987792969</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>180.4900054931641</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>180.4900054931641</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>33803</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45559.55208333334</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>180.4900054931641</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>181.0399932861328</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>180.0700073242188</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>51583</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45559.59375</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>180.4199981689453</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>180.6900024414062</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>178.5899963378906</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>178.7799987792969</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>178.7799987792969</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>165569</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>178.7400054931641</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>178.5500030517578</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>179.1999969482422</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>179.1999969482422</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>61214</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
